--- a/STM32F4 文档资料/STM32引脚分配图.xlsx
+++ b/STM32F4 文档资料/STM32引脚分配图.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="192">
   <si>
     <t>PA0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -631,10 +631,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>电机控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SETP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -848,6 +844,46 @@
   </si>
   <si>
     <t>USART1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReedSwitch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电机控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED灯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1033,7 +1069,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1055,15 +1091,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1076,6 +1103,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1085,7 +1113,21 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1368,30 +1410,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="17" max="17" width="10.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="3:21" s="2" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="11"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="21"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
@@ -1587,11 +1632,15 @@
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
-      <c r="O8" s="8" t="s">
+      <c r="O8" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
+      <c r="P8" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>183</v>
+      </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
@@ -1617,11 +1666,15 @@
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
-      <c r="O9" s="8" t="s">
+      <c r="O9" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
+      <c r="P9" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q9" s="22" t="s">
+        <v>185</v>
+      </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
@@ -1637,23 +1690,23 @@
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="J10" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="K10" s="17" t="s">
+      <c r="J10" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="L10" s="17" t="s">
+      <c r="K10" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="L10" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="M10" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="N10" s="17" t="s">
-        <v>148</v>
+      <c r="M10" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>147</v>
       </c>
       <c r="O10" s="8" t="s">
         <v>75</v>
@@ -1670,32 +1723,32 @@
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="H11" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="H11" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="K11" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="L11" s="17" t="s">
+      <c r="J11" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="L11" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="M11" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="N11" s="17" t="s">
-        <v>149</v>
+      <c r="M11" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>148</v>
       </c>
       <c r="O11" s="8" t="s">
         <v>76</v>
@@ -1737,14 +1790,14 @@
       <c r="U12" s="1"/>
     </row>
     <row r="13" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>144</v>
+      <c r="D13" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>28</v>
@@ -1771,23 +1824,23 @@
       <c r="U13" s="1"/>
     </row>
     <row r="14" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="F14" s="14" t="s">
+      <c r="D14" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="H14" s="12" t="s">
         <v>143</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>144</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>46</v>
@@ -1814,14 +1867,14 @@
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>145</v>
+      <c r="G15" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>144</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>47</v>
@@ -1917,7 +1970,7 @@
         <v>50</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K18" s="6"/>
       <c r="L18" s="6" t="s">
@@ -1946,10 +1999,10 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="J19" s="21" t="s">
         <v>180</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>179</v>
       </c>
       <c r="K19" s="6"/>
       <c r="L19" s="6" t="s">
@@ -2000,11 +2053,11 @@
       <c r="N20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O20" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="20"/>
+      <c r="O20" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="18"/>
     </row>
     <row r="21" spans="3:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C21" s="8" t="s">
@@ -2021,21 +2074,21 @@
         <v>123</v>
       </c>
       <c r="J21" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="K21" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>171</v>
       </c>
       <c r="L21" s="6" t="s">
         <v>135</v>
       </c>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
-      <c r="O21" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="20"/>
+      <c r="O21" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="18"/>
     </row>
     <row r="22" spans="3:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C22" s="8" t="s">
@@ -2058,11 +2111,11 @@
       </c>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
-      <c r="O22" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="20"/>
+      <c r="O22" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="18"/>
     </row>
     <row r="23" spans="3:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C23" s="8" t="s">
@@ -2085,11 +2138,11 @@
       </c>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
-      <c r="O23" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="20"/>
+      <c r="O23" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="18"/>
     </row>
     <row r="24" spans="3:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C24" s="8" t="s">
@@ -2106,21 +2159,21 @@
         <v>126</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>129</v>
       </c>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
-      <c r="O24" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="20"/>
+      <c r="O24" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="18"/>
     </row>
     <row r="25" spans="3:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C25" s="8" t="s">
@@ -2137,21 +2190,21 @@
         <v>127</v>
       </c>
       <c r="J25" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="K25" s="6" t="s">
         <v>177</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>178</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>137</v>
       </c>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
-      <c r="O25" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="20"/>
+      <c r="O25" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="18"/>
     </row>
     <row r="26" spans="3:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C26" s="8" t="s">
@@ -2168,21 +2221,21 @@
         <v>128</v>
       </c>
       <c r="J26" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="K26" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>134</v>
       </c>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
-      <c r="O26" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="20"/>
+      <c r="O26" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="18"/>
     </row>
     <row r="27" spans="3:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C27" s="8" t="s">
@@ -2205,11 +2258,11 @@
       </c>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
-      <c r="O27" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="20"/>
+      <c r="O27" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="18"/>
     </row>
     <row r="28" spans="3:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C28" s="8" t="s">
@@ -2232,11 +2285,11 @@
       </c>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
-      <c r="O28" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="20"/>
+      <c r="O28" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="18"/>
     </row>
     <row r="29" spans="3:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C29" s="8" t="s">
@@ -2253,31 +2306,31 @@
         <v>131</v>
       </c>
       <c r="J29" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="K29" s="6" t="s">
         <v>172</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>173</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>125</v>
       </c>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
-      <c r="O29" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="20"/>
+      <c r="O29" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="18"/>
     </row>
     <row r="30" spans="3:21" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>141</v>
+      <c r="D30" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>189</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>113</v>
@@ -2294,21 +2347,21 @@
       </c>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
-      <c r="O30" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="20"/>
+      <c r="O30" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="18"/>
     </row>
     <row r="31" spans="3:21" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D31" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>142</v>
+      <c r="D31" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>190</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>114</v>
@@ -2325,18 +2378,22 @@
       </c>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
-      <c r="O31" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="20"/>
+      <c r="O31" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="18"/>
     </row>
     <row r="32" spans="3:21" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
+      <c r="D32" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>140</v>
+      </c>
       <c r="F32" s="6" t="s">
         <v>115</v>
       </c>
@@ -2352,18 +2409,22 @@
       </c>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
-      <c r="O32" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="20"/>
+      <c r="O32" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="18"/>
     </row>
     <row r="33" spans="3:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
+      <c r="D33" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>141</v>
+      </c>
       <c r="F33" s="6" t="s">
         <v>116</v>
       </c>
@@ -2379,18 +2440,22 @@
       </c>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
-      <c r="O33" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="20"/>
+      <c r="O33" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="18"/>
     </row>
     <row r="34" spans="3:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
+      <c r="D34" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>187</v>
+      </c>
       <c r="F34" s="6" t="s">
         <v>117</v>
       </c>
@@ -2406,11 +2471,11 @@
       </c>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
-      <c r="O34" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="20"/>
+      <c r="O34" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="18"/>
     </row>
     <row r="35" spans="3:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C35" s="8" t="s">
@@ -2433,11 +2498,11 @@
       </c>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
-      <c r="O35" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="20"/>
+      <c r="O35" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="18"/>
     </row>
     <row r="36" spans="3:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C36" s="8" t="s">
@@ -2460,14 +2525,23 @@
       </c>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
-      <c r="O36" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="20"/>
+      <c r="O36" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="C2:Q2"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="O26:Q26"/>
     <mergeCell ref="O34:Q34"/>
     <mergeCell ref="O35:Q35"/>
     <mergeCell ref="O36:Q36"/>
@@ -2477,15 +2551,6 @@
     <mergeCell ref="O31:Q31"/>
     <mergeCell ref="O32:Q32"/>
     <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="C2:Q2"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="O21:Q21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
